--- a/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.40615328726311</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13.3802637734696</v>
+        <v>13.38026377346959</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2147003323204174</v>
@@ -649,7 +649,7 @@
         <v>0.1863919679601333</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2036432759985354</v>
+        <v>0.2036432759985352</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.814478504883507</v>
+        <v>9.632327410758279</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.575523043835596</v>
+        <v>5.164946619649792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.00568032798116</v>
+        <v>7.095899729686063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.243994032838833</v>
+        <v>8.494565373466067</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1504927547555731</v>
+        <v>0.1494059443574389</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08467479239605419</v>
+        <v>0.07762934678807647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1115255865418963</v>
+        <v>0.1112720914581441</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1175640776202492</v>
+        <v>0.1253135632983219</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.92227538991482</v>
+        <v>17.47779979473466</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.49947063985984</v>
+        <v>12.75330805714502</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.02763774103216</v>
+        <v>15.77767608023144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.54575168529817</v>
+        <v>17.86169056153025</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2815453265171857</v>
+        <v>0.2943679022452146</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2208411725245515</v>
+        <v>0.2069356325253899</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2747861865828625</v>
+        <v>0.2720784906688195</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2806074596379379</v>
+        <v>0.2854142454597403</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.785274649025729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.324294806029689</v>
+        <v>5.324294806029684</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3467585729951254</v>
@@ -749,7 +749,7 @@
         <v>0.1383073930329328</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1283022214878203</v>
+        <v>0.1283022214878201</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.306225828197071</v>
+        <v>8.361137737051969</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.072988932176291</v>
+        <v>3.169591185952461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.811018257901995</v>
+        <v>1.654745680133779</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.138906849031614</v>
+        <v>2.318469480210847</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2298180521904401</v>
+        <v>0.2385654714481738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07925502292110699</v>
+        <v>0.08268848507871226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05099347000366079</v>
+        <v>0.04386515897876572</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04952047967896207</v>
+        <v>0.05402709314303045</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.95940344554561</v>
+        <v>15.46240038628131</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.865573253557233</v>
+        <v>10.04355901477907</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.909869363071278</v>
+        <v>8.191379168038097</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.248937065127526</v>
+        <v>8.579388946558819</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4639530649683677</v>
+        <v>0.4877967340706308</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2740458186040959</v>
+        <v>0.2831614955135161</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2389050414355638</v>
+        <v>0.246882612197102</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2098864897867264</v>
+        <v>0.2185301138875289</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.3048686420656929</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.006408255139887864</v>
+        <v>-0.006408255139887862</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.241080205339028</v>
+        <v>4.872715096082437</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.421619897685714</v>
+        <v>1.645827118333396</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.031187444327955</v>
+        <v>1.83343283358893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.838357821142742</v>
+        <v>-5.909005899973082</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1497476545026882</v>
+        <v>0.1423897768959764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03961465730540271</v>
+        <v>0.0500979431975375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07066959669137522</v>
+        <v>0.0585777982792024</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1291628497898953</v>
+        <v>-0.1266840465851324</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.74293625189239</v>
+        <v>17.89664940548261</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.48588859557039</v>
+        <v>14.42738892076366</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.57935961819019</v>
+        <v>13.77228694466148</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.579550806351339</v>
+        <v>4.634920413640844</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.596912439726719</v>
+        <v>0.600871850993004</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5471796593020222</v>
+        <v>0.5501591995183243</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5914047579388779</v>
+        <v>0.5990037039804996</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1190415948370724</v>
+        <v>0.1204243070197883</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.8421664207672</v>
+        <v>12.20951958578674</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.582315735438609</v>
+        <v>8.033817922039376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.430247600841851</v>
+        <v>6.354908401065929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.916637609765286</v>
+        <v>4.884545796269646</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2725633815947037</v>
+        <v>0.2779455002893035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1671346225879506</v>
+        <v>0.1786010850332158</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.159660846188819</v>
+        <v>0.1576147784078546</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1039912999763784</v>
+        <v>0.1040537418199998</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.77970809993361</v>
+        <v>16.94650365462938</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.51963066118196</v>
+        <v>12.77747673971031</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.02116748204836</v>
+        <v>11.41146837086054</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.603961075588805</v>
+        <v>9.788047706538071</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4076186052210329</v>
+        <v>0.4132091545548734</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2910048865755089</v>
+        <v>0.3012386160223599</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2924309904923026</v>
+        <v>0.3045228696621205</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2179307543180624</v>
+        <v>0.2236842593435195</v>
       </c>
     </row>
     <row r="16">
